--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544549.459316224</v>
+        <v>-2546997.692395278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16500596.57051945</v>
+        <v>16500596.57051944</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8690482009358</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>367.242899866357</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1990697465907</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>164.4220252224621</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>38.12750508653127</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>222.0321981300297</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.461970681989104</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>132.5423589780353</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>97.42399283237027</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>144.7268717888056</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.048055842938302</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>108.5674217103421</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404367</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,22 +3664,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3946,13 +3946,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C2" t="n">
-        <v>885.7444020895362</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D2" t="n">
-        <v>527.4787034827857</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E2" t="n">
-        <v>527.4787034827857</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>527.4787034827857</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>527.4787034827857</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>447.3340229118255</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>220.0258355804272</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>718.5714380630109</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>600.3039914920054</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5121,7 +5121,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5136,7 +5136,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5285,7 +5285,7 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>1622.425187676631</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
         <v>2602.177459903277</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5476,10 +5476,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,22 +5516,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>836.0059675195635</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676631</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004705</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,10 +6066,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D25" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H25" t="n">
         <v>145.4370786819758</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6175,22 +6175,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T25" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U25" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V25" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1088.893283004706</v>
+        <v>1729.091615892342</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676631</v>
+        <v>2707.641918722171</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,7 +6403,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
@@ -6418,16 +6418,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X28" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,13 +6464,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676631</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
         <v>2602.177459903277</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6643,19 +6643,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S31" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849072</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903278</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,13 +6816,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932524</v>
@@ -6853,10 +6853,10 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
         <v>437.6816203490196</v>
@@ -6880,7 +6880,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
@@ -6889,19 +6889,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,10 +7014,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7117,7 +7117,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
@@ -7126,19 +7126,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,22 +7281,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
         <v>564.3616113774091</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.844055175504</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
         <v>463.8981507430895</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345676</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2047.844055175505</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7819,19 +7819,19 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>19.79750571619297</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>7.630896635344584</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9164,16 +9164,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>219.9458872952496</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>146.0713065388583</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571619195</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>139.3563597571375</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>19.79750571619286</v>
+        <v>173.2204606877384</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M29" t="n">
-        <v>19.79750571619365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>39.48321557772761</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>351.4175304294035</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>7.630896635344584</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>7.630896635342538</v>
+        <v>180.7381496078621</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>7.053724563421383</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18.99503878969654</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.8598490195156</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.52764871430791</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>35.10510839313173</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.567417175274</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>36.85362631258916</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1407141.832493952</v>
+        <v>1407141.832493951</v>
       </c>
     </row>
     <row r="7">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106987.6929218025</v>
+        <v>106987.6929218026</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26439,13 +26439,13 @@
         <v>33605.65329740898</v>
       </c>
       <c r="J4" t="n">
+        <v>33605.653297409</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33605.653297409</v>
+      </c>
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.65329740901</v>
       </c>
       <c r="M4" t="n">
         <v>33605.65329740899</v>
@@ -26457,7 +26457,7 @@
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>100332.6710141021</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-779814.6501997565</v>
+        <v>-780149.1167326206</v>
       </c>
       <c r="C6" t="n">
-        <v>-266207.7649205374</v>
+        <v>-266207.7649205375</v>
       </c>
       <c r="D6" t="n">
         <v>-266207.7649205375</v>
       </c>
       <c r="E6" t="n">
-        <v>-841909.4245663102</v>
+        <v>-841976.6200565359</v>
       </c>
       <c r="F6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="G6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="H6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="I6" t="n">
-        <v>-171518.4336063852</v>
+        <v>-171518.4336063851</v>
       </c>
       <c r="J6" t="n">
         <v>-310361.543504104</v>
@@ -26552,7 +26552,7 @@
         <v>-133938.3243115111</v>
       </c>
       <c r="M6" t="n">
-        <v>-263580.6391504558</v>
+        <v>-263580.6391504559</v>
       </c>
       <c r="N6" t="n">
         <v>-171518.4336063852</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="J2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>109.9464692034282</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>214.0101382372967</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.1820066747293</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>147.6989025484394</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>250.1914826854452</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>114.7215461176486</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>52.02592219651751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>558.7186215464197</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>559.9327320482561</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35884,16 +35884,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>557.1371738506501</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -35902,7 +35902,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>544.8332927582302</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085241</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>691.658195170049</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,7 +36525,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>475.387620108525</v>
+        <v>628.8105750800705</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M29" t="n">
-        <v>558.7186215464202</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>591.7850509906391</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>725.0407592145528</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>903.719365842315</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>629.6597897216824</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>559.9327320482561</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>488.2865496089913</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>559.9327320482543</v>
+        <v>733.0399850207735</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
